--- a/BalanceSheet/FICO_bal.xlsx
+++ b/BalanceSheet/FICO_bal.xlsx
@@ -1678,19 +1678,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-1479000.0</v>
+        <v>22000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>2874000.0</v>
+        <v>23000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-3648000.0</v>
+        <v>20000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-8516000.0</v>
+        <v>25000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>10349000.0</v>
+        <v>32000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>23118000.0</v>
@@ -3006,19 +3006,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-298000.0</v>
+        <v>-15000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>-7409000.0</v>
+        <v>-15000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>-17000.0</v>
+        <v>-7000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-197000.0</v>
+        <v>-7000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>-1016000.0</v>
+        <v>-7000000.0</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
